--- a/cto_р (1).xlsx
+++ b/cto_р (1).xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmitry\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525" tabRatio="783" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525" tabRatio="783" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Recomm" sheetId="1" r:id="rId1"/>
@@ -17,8 +12,8 @@
     <sheet name="Set default" sheetId="3" r:id="rId3"/>
     <sheet name="Set size limits" sheetId="4" r:id="rId4"/>
     <sheet name="Упр-ие операциями" sheetId="12" r:id="rId5"/>
-    <sheet name="Enable features" sheetId="5" r:id="rId6"/>
-    <sheet name="Disable features" sheetId="6" r:id="rId7"/>
+    <sheet name="Enable disabled features" sheetId="5" r:id="rId6"/>
+    <sheet name="Disable enabled features" sheetId="6" r:id="rId7"/>
     <sheet name="Omit features" sheetId="7" r:id="rId8"/>
     <sheet name="Analis &amp; debug" sheetId="8" r:id="rId9"/>
     <sheet name="Win specific" sheetId="9" r:id="rId10"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="604">
   <si>
     <t>-DSQLITE_ENABLE_EXPLAIN_COMMENTS</t>
   </si>
@@ -1368,12 +1363,486 @@
   </si>
   <si>
     <t>Оба они - table-valued funtions. ВТ "bytecode" показывают операции в prepared statement'е, как в основной части prepared statement'а, так и в подпрограммах, используемых для реализации триггеров иди действий ВК. ВТ "table_used" показывает какие би деревья БД читаются или пишутся preapared statement'ом, как основным оператором, так и связанными триггерами и дейвствиями ВК</t>
+  </si>
+  <si>
+    <t>Включает дополнительные API, которые предоставляют доступ к метаданным таблиц и запросов</t>
+  </si>
+  <si>
+    <t>sqlite3_column_database_name(),sqlite3_column_database_name16(),sqlite3_column_table_name(),sqlite3_column_table_name16(),sqlite3_column_origin_name(),sqlite3_column_origin_name16()</t>
+  </si>
+  <si>
+    <t>Включает ВТ "SQLITE_DBPAGE"</t>
+  </si>
+  <si>
+    <t>Включает ВТ "dbstat"</t>
+  </si>
+  <si>
+    <t>Включает интерфейсы sqlite3_serialize(),sqlite3_deserialize()</t>
+  </si>
+  <si>
+    <t>Связанные</t>
+  </si>
+  <si>
+    <t>SQLITE_OMIT_DESERIALIZE</t>
+  </si>
+  <si>
+    <t>Добавляет комментарии в результат запроса с EXPLAIN</t>
+  </si>
+  <si>
+    <t>Включает автоматически при использовании COT SQLITE_DEBUG</t>
+  </si>
+  <si>
+    <t>Если используется amalgamation, то автоматически в сборку добавляется движок полнотекстового поиска версии 3</t>
+  </si>
+  <si>
+    <t>Поддержка FTS3 операторов AND, NOT и поддержка вложенных круглых скорок в выражениях запроса</t>
+  </si>
+  <si>
+    <t>Включает двухаргументный интферфейс fts3_tokenizer()</t>
+  </si>
+  <si>
+    <t>sqlite3_db_config(db,SQLITE_DBCONFIG_ENABLE_FTS3_TOKENIZER,1,0)</t>
+  </si>
+  <si>
+    <t>Если используется amalgamation, то автоматически в сборку добавляется движок полнотекстового поиска версии 3 и 4</t>
+  </si>
+  <si>
+    <t>Если используется amalgamation, то автоматически в сборку добавляется движок полнотекстового поиска версии 5 (fts5)</t>
+  </si>
+  <si>
+    <t>Если используется amalgamation, то в сборку добавляется расширение Geopoly</t>
+  </si>
+  <si>
+    <t>Добавляет в SQLite расширение ICU (International Components for Unicode)</t>
+  </si>
+  <si>
+    <t>Когда ядро SQLite и CLI(Command Line Interface) скомпилированы с этой COT, то CLI поддерживает доп команду ".iotrace", поддерживающую логирование действий по вводу-выводу</t>
+  </si>
+  <si>
+    <t>Если используется amalgamation, то автоматически в сборку добавляются функции JSON SQL</t>
+  </si>
+  <si>
+    <t>Для Mac OS X. Включает доп логику для интерфейса с ОС</t>
+  </si>
+  <si>
+    <t>Определяет тип ФС и выбирает альтернативную стратегию блокировок для данной ФС</t>
+  </si>
+  <si>
+    <t>MAX OS X</t>
+  </si>
+  <si>
+    <t>Добавляет доп логику к SQLite, которая включает освобождение ненужной памяти по запросу</t>
+  </si>
+  <si>
+    <t>Для этого используется sqlite3_release_memory()</t>
+  </si>
+  <si>
+    <t>Включает код в SQLite, которые реализует альтернативный выделитель памяти (MEMSYS3)</t>
+  </si>
+  <si>
+    <t>Альтернативный выделитель памяти используется только если используется SQLITE_CONFIG_HEAP, это нужно для выделения огромного пр-ва памяти из которого берется память для выделений.  MEMSYS3 использует гиботдный алгоритм выделения, сформированный после dlmalloc()</t>
+  </si>
+  <si>
+    <t>Включает код в SQLite, которые реализует альтернативный выделитель памяти (MEMSYS5)</t>
+  </si>
+  <si>
+    <t>Альтернативный выделитель памяти используется только если используется SQLITE_CONFIG_HEAP, это нужно для выделения огромного пр-ва памяти из которого берется память для выделений.  MEMSYS5 округляет все выделения до N^2 и использует алгоритм первого соответствия, который гарантирует от фрагментации и поломки</t>
+  </si>
+  <si>
+    <t>Включает оптимизацию, которая пропускает стл NULL в конце строк для увеличения пр-ва на диске</t>
+  </si>
+  <si>
+    <t>Включает SQL функцию sqlite_offset(X)</t>
+  </si>
+  <si>
+    <t>Включает новые API, которые обеспечивают вызов калбэка перед изменением rowid таблицы</t>
+  </si>
+  <si>
+    <t>Отличие от update_hook в том, что вызывает до изменения, а не после. Изначально придумал для поддержки сессий</t>
+  </si>
+  <si>
+    <t>Включает QPSG(query planner stability guarantee)</t>
+  </si>
+  <si>
+    <t>SQLITE_DBCONFIG_ENABLE_QPSG</t>
+  </si>
+  <si>
+    <t>Включает код реализующий RBU расширение</t>
+  </si>
+  <si>
+    <t>Включает код поддерживающий расширение индекса R*Tree</t>
+  </si>
+  <si>
+    <t>Включает расширение сессий</t>
+  </si>
+  <si>
+    <t>Включает поддержку sqlite3_snapshot_*()</t>
+  </si>
+  <si>
+    <t>Включает оптимизацию, которая уменьшает память сортировщика за счет выполнения доп поисков в би дереве после сортировки</t>
+  </si>
+  <si>
+    <t>По умолчанию сорировщик собриает все данные, которые в итоге будут выведены в запись и переданы в сортирощик. Ноесли выводимые стл имеют огромные BLOB, то, либо будет ипользоваться много ОП, либо много темп файлов. При включенном COT, передающиеся записи в сортировщик содержать только значение rowid. После сортировки, работает поиск соответствий для нахождения соответствующих стл</t>
+  </si>
+  <si>
+    <t>Даже если COT вкл, необходимо установить пороговое значение оопрного значения сортировщика</t>
+  </si>
+  <si>
+    <t>Включает sqlite3_stmt_scanstatus()</t>
+  </si>
+  <si>
+    <t>Включает логику ВТ SQLITE_STMT</t>
+  </si>
+  <si>
+    <t>Устарела</t>
+  </si>
+  <si>
+    <t>Включает доп код, который позволяет создавать логи для всех обработок SQLite, выполняемых приложением</t>
+  </si>
+  <si>
+    <t>test_sqllog.c - работающий пример</t>
+  </si>
+  <si>
+    <t>Добавялет доп логику к команде ANALYZE и к планировщику запросов, который помогает выбрать лучший план запроса</t>
+  </si>
+  <si>
+    <t>ANALYZE улучшена для сбора данных гистограммы из всех стл каждого индекса и сохранения это данных в таб sqlite_stat4</t>
+  </si>
+  <si>
+    <t>Включает необязательные LIMIT, ORDER BY в UPDATE,DELETE</t>
+  </si>
+  <si>
+    <t>Если  параметр определен, то он также должен быть определен при использовании инструмента генератора синтаксического анализатора Lemon для создания файла parse.c. Из-за этого эта опция может использоваться только тогда, когда библиотека построена из источника, а не из amalgamation или из коллекции предварительно упакованных C-файлов, предоставленных для платформ, не подобных Unix на веб-сайте</t>
+  </si>
+  <si>
+    <t>Подавляет ошибки "unknown function" при использовании EXPLAIN, EXPLAIN QUERY PLAN</t>
+  </si>
+  <si>
+    <t>Вместо ошибки он вставляет замещаемую no-op функцию с именем unknown()</t>
+  </si>
+  <si>
+    <t>Включает sqlite3_unlock_notify() и ассоциированные с ним ф-ии</t>
+  </si>
+  <si>
+    <t>Включает PRAGMA function_list, PRAGMA module_list, PRAGMA pragma_list</t>
+  </si>
+  <si>
+    <t>Сейчас они по дефолту включены</t>
+  </si>
+  <si>
+    <t>Включает SQL функцию soundex()</t>
+  </si>
+  <si>
+    <t>Включает использование alloca() в некоторых подобающих ситуациях</t>
+  </si>
+  <si>
+    <t>SQLite выдает доп элементы управления файлами SQLITE_FCNTL_TRACE для предоставления доп информации в ВФС. Расширение "vfslog.c" использует его для предоставления расширенных журналов активности ВФС</t>
+  </si>
+  <si>
+    <t>Привязывает некоторым расширениям библиотеку сжатия zlib</t>
+  </si>
+  <si>
+    <t>Используется только расширениями. Этот параметр необходим для функций сжатия и декомпрессии, которые являются частью поддержки SQL Archive в оболочке командной строки. При компиляции с этим параметром обычно необходимо добавить параметр компоновщика для включения библиотеки zlib в построение. Обычно этот параметр имеет значение "-lz"</t>
+  </si>
+  <si>
+    <t>Позволяет отслеживать глубину стека синтаксического анализатора LALR(1) и сообщать о ней с помощью sqlite3_status (SQLITE_STATUS_PARSER_STACK,...). Синтаксический анализатор LALR(1) SQLite имеет фиксированную глубину стека (определяемую COT YYSTACKDEPTH). Этот параметр позволяет определить, приближается ли приложение к превышению максимальной глубины стека LALR(1)</t>
+  </si>
+  <si>
+    <t>Отключает поддержку больших файлов</t>
+  </si>
+  <si>
+    <t>Отключает синхронизацию каталогов</t>
+  </si>
+  <si>
+    <t>Обычно SQLite пытает синхронизировать родительские директории при удалении файла</t>
+  </si>
+  <si>
+    <t>Отключает отложенный токен (deferred token)</t>
+  </si>
+  <si>
+    <t>Отключает использование специфичных для компилятора встроенных функций, таких как __builtin_bswap32 () и __builtin_add_overflow () в GCC и Clang, или _byteswap_ulong () и _ReadWriteBarrier () с MSVC</t>
+  </si>
+  <si>
+    <t>Отключает токенизатор unicode61 в FTS3</t>
+  </si>
+  <si>
+    <t>Если используются эти COT, то необходимо: 1. Оптимизировать размер бинарника -Os. 2. Работают, если используется канонические исходные файлы. 3. Эти COT не поддерживаются, не все из них протестированы</t>
+  </si>
+  <si>
+    <t>Исключает ALTER TABLE</t>
+  </si>
+  <si>
+    <t>Исключает ANALYZE</t>
+  </si>
+  <si>
+    <t>Исключает ATTACH, DETACH</t>
+  </si>
+  <si>
+    <t>Исключает sqlite3_set_authorizer()</t>
+  </si>
+  <si>
+    <t>Исключает AUTOINCREMENT</t>
+  </si>
+  <si>
+    <t>SQLite автоматически не  инициализирует себя через sqlite3_initialize(). Приложению необходимо самостоятельно вызвать эту функцию перед использованием SQLite</t>
+  </si>
+  <si>
+    <t>Отключает функциональность автоматической индексации</t>
+  </si>
+  <si>
+    <t>По дефолту sqlite3_step() автоматически вызывает sqlite3_reset() для сброса prepared statement'а при необходимости. Данный COT изменяет это поведение так, что sqlite3_step() возвращает SQLITE_MISUSE, если он вызывается снова после возврата чего-либо, кроме SQLITE_ROW, SQLITE_BUSY или SQLITE_LOCKED, если только не было промежуточного вызова sqlite3_reset()</t>
+  </si>
+  <si>
+    <t>В SQLite версии &lt;=3.6.23.1, sqlite3_step () всегда возвращал SQLITE_MISUSE, если он был вызван снова после возврата чего-либо, кроме SQLITE_ROW, без промежуточного вызова sqlite3_reset(). Это вызвало проблемы в некоторых плохо написанных приложениях. Вместо того, чтобы исправить множество дефектных приложений, поведение SQLite было изменено в 3.6.23.2, чтобы автоматически сбросить prepared statement. Но это изменение вызвало проблемы в других неправильно реализованных приложениях, которые на самом деле ждали ошибку SQLITE_MISUSE для завершения своих циклов запросов. Данный COT был добавлен в SQLite версии 3.7.5, чтобы обеспечить повторную работу всех (сломанных) приложений без необходимости фактического исправления приложений</t>
+  </si>
+  <si>
+    <t>Исключает autovacuum</t>
+  </si>
+  <si>
+    <t>Если COT определен, библиотека не может создавать или записывать в БД, поддерживающие auto_vacuum</t>
+  </si>
+  <si>
+    <t>Отключает использование индексов в WHERE с BETWEEN</t>
+  </si>
+  <si>
+    <t>Отключает возможность указать BLOB в SQL с помощью синтаксиса X'ABCD'</t>
+  </si>
+  <si>
+    <t>Переименовано в SQLITE_UNTESTABLE</t>
+  </si>
+  <si>
+    <t>Отключает команду PRAGMA case_sensitive</t>
+  </si>
+  <si>
+    <t>Отключает поддержку оператора CAST</t>
+  </si>
+  <si>
+    <t>Пропускает поддержку ограничений CHECK</t>
+  </si>
+  <si>
+    <t>Отключает COT диагностики</t>
+  </si>
+  <si>
+    <t>sqlite3_compileoption_used(),sqlite3_compileoption_get() C-функции,sqlite3_compileoption_used(),sqlite3_compileoption_get() SQL-функции и PRAGMA compile_options</t>
+  </si>
+  <si>
+    <t>Отключает sqlite3_complete(), sqlite3_complete16()</t>
+  </si>
+  <si>
+    <t>Отключает составную функцию SELECT</t>
+  </si>
+  <si>
+    <t>Это SELECT, использующие UNION,UNION ALL,INTERSECT,EXCEPT. Также запрет добавлять более одной стр с помощью INSERT INTO … VALUES</t>
+  </si>
+  <si>
+    <t>Отключает поддержку CTE (common table expressions)</t>
+  </si>
+  <si>
+    <t>Отключает поддержку встроенных SQL-функции даты/времени</t>
+  </si>
+  <si>
+    <t>julianday(),date(),time(),datetime(),strftime()</t>
+  </si>
+  <si>
+    <t>Отключает sqlite3_column_decltype(),sqlite3_column_decltype16()</t>
+  </si>
+  <si>
+    <t>Отключает интерфейсы, помеченные как устаревшие</t>
+  </si>
+  <si>
+    <t>sqlite3_aggregate_count(),sqlite3_expired(), sqlite3_transfer_bindings(), sqlite3_global_recover(), sqlite3_thread_cleanup() and sqlite3_memory_alarm()interfaces, PRAGMA count_changes, PRAGMA data_store_directory, PRAGMA default_cache_size,PRAGMA empty_result_callbacks, PRAGMA full_column_names, PRAGMA short_column_names, and PRAGMA temp_store_directory.</t>
+  </si>
+  <si>
+    <t>Пропускает всю поддержку записи на диск и заставляет БД существовать в ОП</t>
+  </si>
+  <si>
+    <t>Отключает команду EXPLAIN</t>
+  </si>
+  <si>
+    <t>Пропускает поддержку подмножества команд PRAGMA, которые запрашивают и задают логические свойства</t>
+  </si>
+  <si>
+    <t>Используется для исключения поддержки чисел с плавающей запятой из SQLite</t>
+  </si>
+  <si>
+    <t>Отключает ограничение ВК</t>
+  </si>
+  <si>
+    <t>Отключает генерируемые стл</t>
+  </si>
+  <si>
+    <t>Отключает sqlite3_get_table(),sqlite3_free_table()</t>
+  </si>
+  <si>
+    <t>Отключает 16-ричные целочисленные литералы</t>
+  </si>
+  <si>
+    <t>Отключает инкрементальный ввод-вывод BLOB'а</t>
+  </si>
+  <si>
+    <t>Отключает PRAGMA integrity_check</t>
+  </si>
+  <si>
+    <t>Эта PRAGMA выполняет низкоуровневое  форматирование и проверку БД на согласованность</t>
+  </si>
+  <si>
+    <t>Отключает поддержку PRAGMA function_list,PRAGMA module_list,PRAGMA pragma_list</t>
+  </si>
+  <si>
+    <t>Отключает использование индексов для разрешения LIKE и GLOB в WHERE</t>
+  </si>
+  <si>
+    <t>Отключает механизм загрузки расширений</t>
+  </si>
+  <si>
+    <t>sqlite3_enable_load_extension(),sqlite3_load_extension()</t>
+  </si>
+  <si>
+    <t>Пропускает модификатор "localtime" из функций даты и времени</t>
+  </si>
+  <si>
+    <t>Пропускает средство распределения памяти lookaside</t>
+  </si>
+  <si>
+    <t>Не поддерживает спец имя БД :memory: для создания БД в ОП</t>
+  </si>
+  <si>
+    <t>Отключает возможность использовать индекс вместе с WHERE, связанного оператором OR</t>
+  </si>
+  <si>
+    <t>Отключает PRAGMA'ы относящиеся к подсистеме pager</t>
+  </si>
+  <si>
+    <t>Отключает команду PRAGMA из библиотеки</t>
+  </si>
+  <si>
+    <t>Отключает возможность использовать "progress" калбэк при длительных SQL запросах</t>
+  </si>
+  <si>
+    <t>Пропускает альтернативную, более быструю процедуру балансировки би дерева</t>
+  </si>
+  <si>
+    <t>Исключает команду REINDEX</t>
+  </si>
+  <si>
+    <t>Отключает PRAGMA'ы относящиеся к запросам схемы БД</t>
+  </si>
+  <si>
+    <t>Отключает PRAGMA'ы для запроса и изменения версии схемы БД и пользовательской версии</t>
+  </si>
+  <si>
+    <t>Отключает поддержку режима разделения кэша</t>
+  </si>
+  <si>
+    <t>Отключается поддержка под-SELECT'ов в IN()</t>
+  </si>
+  <si>
+    <t>Отключает возможность связки SQL переменных с TCL</t>
+  </si>
+  <si>
+    <t>Отключает поддержку TEMP, TEMPORARY таблиц</t>
+  </si>
+  <si>
+    <t>Отключает sqlite3_profile(), sqlite3_trace()</t>
+  </si>
+  <si>
+    <t>Отключает TRIGGER</t>
+  </si>
+  <si>
+    <t>Также отключаются ограничения ВК</t>
+  </si>
+  <si>
+    <t>Отключает оптимизацию усечения (truncate optimization)</t>
+  </si>
+  <si>
+    <t>В случае, если DELETE без WHERE над таблицей без триггеров, то оптимизатор выполянет DELETE удаляя табилцу и создавая ее заново</t>
+  </si>
+  <si>
+    <t>Отключает поддержку кодировки UTF16</t>
+  </si>
+  <si>
+    <t>Отключает VACUUM</t>
+  </si>
+  <si>
+    <t>Отключает VIEW объекты</t>
+  </si>
+  <si>
+    <t>Отключает механизм ВТ</t>
+  </si>
+  <si>
+    <t>Отключает механизм WAL</t>
+  </si>
+  <si>
+    <t>Собирает библиотеку без WSD (writable static data)</t>
+  </si>
+  <si>
+    <t>WSD - глобальные и/или статические переменные. Некоторые платформы не поддерживают WSD, и этот параметр необходим для работы SQLite с этими платформами.</t>
+  </si>
+  <si>
+    <t>Отключает оптимизацию, которая помогает INSERT INTO … SELECT работать быстрее</t>
+  </si>
+  <si>
+    <t>Отключает логику, связанную с sqlite3_test_control()</t>
+  </si>
+  <si>
+    <t>Стандартная сборка SQLite включает в себя небольшое количество логики, связанной с sqlite3_test_control (), для выполнения частей ядра SQLite, которые в противном случае трудно проверить. Установка этого параметра компиляции предотвращает полную проверку SQLite. Охват тестами ответвлений снижается со 100% до примерно 95%. Разработчики SQLite следуют принципу НАСА "летайте, что вы тестируете и тестируйте, на чем летаете". Этот принцип нарушается, если этот параметр включен для доставки, но отключен для тестирования. Но если этот параметр включен во время тестирования, не все ветви доступны.</t>
+  </si>
+  <si>
+    <t>Пропускает дефолтный распределитель памяти и отладочный распределитель памяти и заменяет шлейфный распределитель памяти, который всегда выходит из строя</t>
+  </si>
+  <si>
+    <t>sqlite3_config(SQLITE_CONFIG_MALLOC) или sqlite3_config(SQLITE_CONFIG_HEAP)</t>
+  </si>
+  <si>
+    <t>SQLite не будет выполняться с этим распределителем памяти-заглушки, так как он не сможет выделить память. Таким образом, чистый эффект этого COT заключается в том, что он позволяет компилировать SQLite и связывать его с системной библиотекой, которая не поддерживает malloc (), free () и/или realloc ().</t>
+  </si>
+  <si>
+    <t>Исходный код SQLite содержит буквально тысячи assert (), используемых для проверки внутренних допущений и пред- и постусловий подпрограмм. Эти инструкции assert () обычно отключены, так как их включение делает выполнение SQLite примерно в три раза медленнее. Но для тестирования и анализа полезно включить.</t>
+  </si>
+  <si>
+    <t>Включает несколько функций отладки, такие как  PRAGMA'ы, которые включают функции отслеживания и перечисления, используемые для устранения неполадок и анализа VDBE и генератора кода.</t>
+  </si>
+  <si>
+    <t>Приводит к использованию инструментального отладочного распределителя памяти в качестве дефолтного распределителя памяти. Инструментальный распределитель памяти проверяет неправильное использование динамически выделенной памяти. Примеры неправильного использования включают использование памяти после ее освобождения, списание концов выделения памяти, освобождение памяти, ранее не полученной от распределителя памяти, или неспособность инициализировать вновь выделенную память.</t>
+  </si>
+  <si>
+    <t>Вынуждает Win32 собственный распределитель памяти создавать частную кучу для хранения всех выделений памяти</t>
+  </si>
+  <si>
+    <t>Вынуждает Win32 собственный распределитель памяти выполнять стратегические вызовы функции HeapValidate (), если функция assert () также включена</t>
+  </si>
+  <si>
+    <t>Этот макрос определяет внешний видимый интерфейс для SQLite. Иногда для этого макроса устанавливается значение "extern". Но определение зависит от компилятора</t>
+  </si>
+  <si>
+    <t>Задает соглашение о вызове, используемое указателями калбэка. COT обычно определяется как ничего, хотя в построениях Windows его иногда можно установить на "__cdecl" или "__stdcall." Параметр "__cdecl" используется по умолчанию, но "__stdcall" используется при компиляции SQLite как системной библиотеки Windows.</t>
+  </si>
+  <si>
+    <t>Определяет соглашение о вызове, используемое подпрограммами открытого интерфейса. COT обычно определяется как ничего, хотя в построениях Windows его иногда можно установить на "__cdecl" или "__stdcall." Параметр "__cdecl" используется по умолчанию, но "__stdcall" используется при компиляции SQLite как системной библиотеки Windows.</t>
+  </si>
+  <si>
+    <t>Объявление должно содержать не более одного из: SQLITE_APICALL, SQLITE_CALLBACK, SQLITE_CDECL или SQLITE_SYSCALL.</t>
+  </si>
+  <si>
+    <t>Определяет соглашение о вызове, используемое подпрограммами интерфейса varargs. Этот COT обычно определяется как ничего, хотя в Windows компоновках он иногда может быть установлен в "__cdecl". Используется в подпрограммах varargs и поэтому не может быть установлен в "__stdcall", так как __stdcall соглашение не поддерживает функции varargs.</t>
+  </si>
+  <si>
+    <t>Этот макрос определяет соглашение о вызове, используемое интерфейсами ОС для целевой платформы для построения SQLite. Этот COT обычно определяется как ничего, хотя в Windows компоновках он иногда может быть установлен в "__stdcall"</t>
+  </si>
+  <si>
+    <t>Объявлениедолжно содержать не более одного из: SQLITE_APICALL, SQLITE_CALLBACK, SQLITE_CDECL или SQLITE_SYSCALL</t>
+  </si>
+  <si>
+    <t>Определяет соглашение о вызове, используемое подпрограммами интерфейса библиотеки TCL. COT используется не ядром SQLite, а только набором тестов TCL Interface и TCL. Обычно определяется как ничего, хотя в Windows компоновках он иногда может быть установлен в "__cdecl". Используется в подпрограммах интерфейса библиотеки TCL, которые всегда компилируются как __cdecl, даже на платформах, предпочитающих использовать __stdcall, поэтому этот макрос не должен быть установлен в __stdcall, если только платформа не является пользовательской конструкцией библиотеки TCL, поддерживающей __stdcall.</t>
+  </si>
+  <si>
+    <t>Этот макрос нельзя использовать в сочетании с любым из: SQLITE_APICALL, SQLITE_CALLBACK, SQLITE_CDECL или SQLITE_SYSCALL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1449,7 +1918,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1471,6 +1940,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1570,7 +2045,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1638,6 +2113,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1647,13 +2128,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1717,7 +2195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1752,7 +2230,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2153,25 +2631,41 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="66.7109375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>200</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -2181,45 +2675,86 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>206</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -2412,7 +2947,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2526,7 +3061,7 @@
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A11"/>
+      <selection activeCell="A20" sqref="A20:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2565,7 +3100,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="15">
@@ -2575,21 +3110,21 @@
         <v>215</v>
       </c>
       <c r="D2" s="20"/>
-      <c r="E2" s="28"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="15">
         <v>1</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
-      <c r="E3" s="28"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="27" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="15">
@@ -2601,7 +3136,7 @@
       <c r="D4" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="26">
         <v>0</v>
       </c>
       <c r="F4" s="20" t="s">
@@ -2612,7 +3147,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="15">
         <v>1</v>
       </c>
@@ -2620,13 +3155,13 @@
         <v>216</v>
       </c>
       <c r="D5" s="20"/>
-      <c r="E5" s="28"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="20" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="15">
         <v>2</v>
       </c>
@@ -2653,7 +3188,7 @@
       <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="27" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="15">
@@ -2674,7 +3209,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="15">
         <v>2</v>
       </c>
@@ -2686,7 +3221,7 @@
       <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="15">
         <v>3</v>
       </c>
@@ -2698,7 +3233,7 @@
       <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="15">
         <v>4</v>
       </c>
@@ -2838,7 +3373,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="27" t="s">
         <v>35</v>
       </c>
       <c r="B20" s="15">
@@ -2854,7 +3389,7 @@
       <c r="F20" s="20"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="15">
         <v>1</v>
       </c>
@@ -2900,7 +3435,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="27" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="15">
@@ -2916,7 +3451,7 @@
       <c r="F24" s="20"/>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="15">
         <v>1</v>
       </c>
@@ -2928,7 +3463,7 @@
       <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="15">
         <v>2</v>
       </c>
@@ -2940,7 +3475,7 @@
       <c r="F26" s="20"/>
     </row>
     <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="15">
         <v>3</v>
       </c>
@@ -2952,7 +3487,7 @@
       <c r="F27" s="20"/>
     </row>
     <row r="28" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="27" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="15">
@@ -2968,7 +3503,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="15">
         <v>1</v>
       </c>
@@ -2980,7 +3515,7 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="15">
         <v>2</v>
       </c>
@@ -2992,7 +3527,7 @@
       <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="15">
         <v>3</v>
       </c>
@@ -3038,7 +3573,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="27" t="s">
         <v>42</v>
       </c>
       <c r="B34" s="15">
@@ -3052,7 +3587,7 @@
       <c r="F34" s="20"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="15">
         <v>1</v>
       </c>
@@ -3064,7 +3599,7 @@
       <c r="F35" s="20"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="15">
         <v>2</v>
       </c>
@@ -3076,7 +3611,7 @@
       <c r="F36" s="20"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="15">
         <v>3</v>
       </c>
@@ -3150,7 +3685,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="27" t="s">
         <v>47</v>
       </c>
       <c r="B42" s="15">
@@ -3164,7 +3699,7 @@
       <c r="F42" s="20"/>
     </row>
     <row r="43" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="15" t="s">
         <v>254</v>
       </c>
@@ -3228,7 +3763,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="27" t="s">
         <v>51</v>
       </c>
       <c r="B47" s="15">
@@ -3242,7 +3777,7 @@
       <c r="F47" s="20"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="15" t="s">
         <v>254</v>
       </c>
@@ -3256,7 +3791,7 @@
       <c r="F48" s="20"/>
     </row>
     <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="27" t="s">
         <v>52</v>
       </c>
       <c r="B49" s="15">
@@ -3270,7 +3805,7 @@
       <c r="F49" s="20"/>
     </row>
     <row r="50" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="26"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="15">
         <v>1</v>
       </c>
@@ -3413,11 +3948,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A8:A11"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="A20:A21"/>
@@ -3425,6 +3955,11 @@
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A42:A43"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3435,8 +3970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3454,18 +3989,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3755,19 +4290,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="25" t="s">
         <v>352</v>
       </c>
       <c r="B1" t="s">
         <v>353</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="25" t="s">
         <v>354</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="25" t="s">
         <v>361</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -3979,11 +4514,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3992,10 +4527,13 @@
     <col min="2" max="2" width="5.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="34.5703125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="37.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="37" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>352</v>
       </c>
@@ -4011,8 +4549,14 @@
       <c r="E1" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>82</v>
       </c>
@@ -4023,7 +4567,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>83</v>
       </c>
@@ -4040,7 +4584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -4048,7 +4592,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>84</v>
       </c>
@@ -4059,7 +4603,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>1</v>
       </c>
@@ -4070,7 +4614,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>2</v>
       </c>
@@ -4078,7 +4622,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>85</v>
       </c>
@@ -4089,7 +4633,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>86</v>
       </c>
@@ -4097,7 +4641,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>87</v>
       </c>
@@ -4108,7 +4652,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>88</v>
       </c>
@@ -4119,224 +4663,413 @@
         <v>445</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="C25" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C26" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C31" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C33" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C34" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C40" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C41" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C42" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C44" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C45" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C46" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C47" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C48" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C49" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C50" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C51" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C52" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C53" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C54" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>131</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -4346,40 +5079,76 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65" customWidth="1"/>
+    <col min="1" max="1" width="33" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="42.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47.85546875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>136</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -4389,358 +5158,642 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A63"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>513</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B8" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B9" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="255.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B10" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B11" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B12" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B13" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B14" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B15" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B16" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B17" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B18" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B19" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B20" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B21" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B22" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B23" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B24" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B25" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B26" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B27" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B28" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B29" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B30" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B31" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B32" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B33" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B34" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B35" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B36" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B37" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B38" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B39" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B40" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B41" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B42" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B43" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B44" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B45" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B46" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B47" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B48" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B49" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B50" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B51" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B52" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B53" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B54" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B55" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B56" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B57" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B58" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B59" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B60" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B61" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B62" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B63" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="B64" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>196</v>
       </c>
+      <c r="B65" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>588</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="51.28515625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>198</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>592</v>
       </c>
     </row>
   </sheetData>
